--- a/Data Files/Sign_Up Data.xlsx
+++ b/Data Files/Sign_Up Data.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Sign_Up Data.xlsx
+++ b/Data Files/Sign_Up Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>tenant name</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Africa/Nairobi - (UTC+03:00) Nairobi</t>
+  </si>
+  <si>
+    <t>Currecy</t>
+  </si>
+  <si>
+    <t>KES</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +433,7 @@
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -449,8 +455,11 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -471,6 +480,9 @@
       </c>
       <c r="G2" t="s">
         <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
